--- a/docs/TRDP/FXD1BA/配置文件/FXD1B机车-航插配置表.xlsx
+++ b/docs/TRDP/FXD1BA/配置文件/FXD1B机车-航插配置表.xlsx
@@ -594,26 +594,7 @@
     <t>无紧急输出；常闭点</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>804</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-A</t>
-    </r>
+    <t>804-A</t>
   </si>
   <si>
     <t>紧急制动输出，常闭点</t>
@@ -1959,9 +1940,9 @@
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q137" sqref="Q137"/>
+      <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3512,7 +3493,7 @@
         <v>114</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G60" s="7">
         <v>0</v>
